--- a/testingset.xlsx
+++ b/testingset.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Haleema Sadia\Downloads\AIProject\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35E70F69-6924-4137-9FFE-E3FECB46E97B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,14 +12,14 @@
   <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="8vl9mZe8OKNSUHO5c48nYpehqg/Nd6O+pYg41QIkePo="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="" roundtripDataChecksum="8vl9mZe8OKNSUHO5c48nYpehqg/Nd6O+pYg41QIkePo="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="141">
   <si>
     <t>username</t>
   </si>
@@ -108,87 +102,7 @@
     <t>#creamychicken#garlic#garlicchicken#creamytuscanchicken#tuscanchicken#whitesauce</t>
   </si>
   <si>
-    <t>Easy to follow and Tasty Loaded Fries 
-Ingredients in reel. Do try!</t>
-  </si>
-  <si>
     <t>#loadedfries#frenchfries#loadedpotato#potatorecipes#chips#friedchicken#tastyrecipes#easyrecipe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">outfitters_pk
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Retreat
-This collection defines the spirit of summer, with its bright colors and sunset hues—as well as novelty prints and graphics, featuring exotic blooms and palm fronds. It reflects many moods: from soft and undone to utilitarian preparedness and streamlined minimalism.
-</t>
-  </si>
-  <si>
-    <t>#Retreat #Summer23 #OutfittersPk #OutfittersCommUnity #clothes #shop</t>
-  </si>
-  <si>
-    <t>Style Sense I Episode 2 I Amping Up Basics ft. @alishay.adnan and @taimur_rumi
-The ultimate guide to elevating your fashion game!
-Accompany Alishay as she shows you how to elevate your everyday wardrobe essentials this season. Mix and match trendy outfits to achieve different styles that reflect your unique persona.
-Watch the complete episode on our YouTube Channel at OutfittersOfficial✨</t>
-  </si>
-  <si>
-    <t>#alishayadnan #StyleSense #Episode2 #OutfittersPk #OutfittersCommUnity</t>
-  </si>
-  <si>
-    <t>ersonifying the urbane look
-Perspective
-A selection of prepster dressings, with an array of jumpsuits, textured shirts, shorts, dresses, and at the forefront our premium weight polos and tees. This collection redefines the preppy look with its ideal laid-back yet dressy silhouettes and color palette.</t>
-  </si>
-  <si>
-    <t>#Perspective #Summer23 #OutfittersPk #OutfittersCommUnity</t>
-  </si>
-  <si>
-    <t>ESSENTIALS | Casual vibes, elevated style.
-An assortment of timeless classics and elevated basics which are everyday staples for effortless style. This collection of vital pieces is the foundation of all style aesthetics, that can be reimagined for multiple occasions.</t>
-  </si>
-  <si>
-    <t>#ESSENTIALS #Summer23 #OutfittersPk #OutfittersCommUnity</t>
-  </si>
-  <si>
-    <t>limelightunstitched</t>
-  </si>
-  <si>
-    <t>2-PC SLUB KHADDAR SUIT
-Unstitched Suit - 2 Piece
-• Printed Slub Khaddar Shirt Fabric
-• Printed Poly Wool Shawl (2.5 Meter)
-• Color: Blue</t>
-  </si>
-  <si>
-    <t>#pakistanifashion #pakistan #pakistanistreetstyle #pakistaniwedding #pakistani #fashion #lahore #karachi #islamabad #pakistanicelebrities #pakistanistyle #pakistaniclothes #pakistaniweddings #pakistanidresses #pakistanibride #pakistanidress #fashionblogger #pakistanstreetstyle #pakistanioutfits #pakistanidesigner #pakistaniwear #pakistanistylelookbook #lollywood #pakistanicouture #style #pakistanisuits #limelightunstitched</t>
-  </si>
-  <si>
-    <t>JACQUARD SHIRT
-Unstitched Shirt
-• Jacquard Fabric
-• Color: Purple
-• Follow @limelight.unstitched</t>
-  </si>
-  <si>
-    <t>#pakistaniclothes #pakistanifashion #pakistanistyle #pakistanidresses #pakistanistreetstyle #pakistanidress #unstitchedsuits #womansfashion #fashionpakistan #pakistaniwedding #womanslook #rawalpindi</t>
-  </si>
-  <si>
-    <t>2-PC WINTER COTTON SUIT
-Unstitched Suit - 2 Piece
-• Printed Winter Cotton Fabric
-• Printed Poly Wool Shawl (2.5 Meter)
-• Color: Brown
-• Follow @limelight.unstitched</t>
-  </si>
-  <si>
-    <t>#pakistanifashion #unstitchedsuits #unstitched #fashionpakistan #cottonfabric #printedsuits #pakistaniclothes #karachidiaries #pakistanidresses</t>
-  </si>
-  <si>
-    <t>WINTER COTTON SHIRT
-Unstitched Shirt
-Printed Winter Cotton Fabric (Gold Pasting)
-Color: Yellow</t>
   </si>
   <si>
     <t xml:space="preserve">COLD CAKE- Most Delicious &amp; budget-friendly dessert you’ll ever make. If you have not tried my most-saved and viral cold cake recipe, I bet you’re missing out on one of the most heavenly and rich cold cakes on this planet 😍
@@ -341,26 +255,3084 @@
     <t>food</t>
   </si>
   <si>
+    <t>Beauty</t>
+  </si>
+  <si>
+    <t>GiftShop</t>
+  </si>
+  <si>
+    <t>Fitness</t>
+  </si>
+  <si>
+    <t>actualcategory</t>
+  </si>
+  <si>
+    <t>Easy to follow and Tasty Loaded Fries 
+Ingredients in reel. Do try!</t>
+  </si>
+  <si>
+    <t>Faisalabad's Premium Restaurant. Reservations 03 4444 57210 / 041 854 0373 Address:137-C PEOPLE COLONY, D-GROUND, FAISALABAD</t>
+  </si>
+  <si>
+    <t>quilim.fsd</t>
+  </si>
+  <si>
+    <r>
+      <t>#quilimrestaurant</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>#foodlover</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>#restaurants</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>#chinesecuisine</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>#desifood</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>#dground</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>#fsd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>#hitea</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>#alacarta</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>#deliciousfood</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>#trendingfoodvideos</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>#trendingreels</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>#restaurantnearme</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>#restaurantfsd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>#toprestaurantdineinnfsd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>#faisalabadfamousrestaurants</t>
+    </r>
+  </si>
+  <si>
+    <t>Opening Hours 12:00 PM to 12:00AM (All Days) For Reservations 03444457210</t>
+  </si>
+  <si>
+    <r>
+      <t>#foodlover</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>#buffet</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>#restaurants</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>#quilimrestaurant</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>#quilim</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>#dgroundrestaurants</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>#restaurantsinfaisalabad</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>#top10restaurantsinfaisalabad</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>#foodie</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>#foodblogger</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>#chinesecuisine</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>#desifood</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>#fastfood</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>#trendingshorts</t>
+    </r>
+  </si>
+  <si>
+    <t>Look deep into nature, and then you will understand everything better. Outdoor Dine-inn 03 4444 57210 / 041 854 0373 Address:137-C PEOPLE COLONY, D-GROUND, FAISALABAD</t>
+  </si>
+  <si>
+    <t>Anything is achievable. QUAID Day. Opening Hours 12:00 PM to 12:00AM (All Days) Reservations 03444457210</t>
+  </si>
+  <si>
+    <r>
+      <t>#QuaidDay</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>#foodlover</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>#restaurants</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>#quilimrestaurant</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>#quilim</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>#dgroundrestaurants</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>#restaurantsinfaisalabad</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>#toprestaurantsinfaisalabad</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>#foodie</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>#food</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>#chinesecuisine</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>#desifood</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>#fastfood</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>#trending</t>
+    </r>
+  </si>
+  <si>
+    <t>The secret ingredient is always love, book your table at 03 4444 57210 / 041 854 0373 Address:137-C PEOPLE COLONY, D-GROUND, FAISALABAD</t>
+  </si>
+  <si>
+    <t>In the embrace of the ambience, find yourself. Reservations 03 4444 57210 / 041 854 0373 || 137-C PEOPLE COLONY, D-GROUND, FAISALABAD</t>
+  </si>
+  <si>
+    <r>
+      <t>#quilimrestaurant</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>#restaurantsinfaislabad</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>#quilimrestaurantdground</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>#livefood</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>#foodfaisalabad</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>#foodlover</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>#deals</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>#hiteafaisalabad</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>#faisalabaddground</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>#lunchdeals</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>#hitearestaurants</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>#faisalabad</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>#trendingreels</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>#foodography</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>#homedelivery</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>#chinesecuisine</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>#deliciousfood</t>
+    </r>
+  </si>
+  <si>
+    <t>Tasty food brings eternal bliss Reservations 03 4444 57210 / 041 854 0373 || 137-C PEOPLE COLONY, D-GROUND, FAISALABAD</t>
+  </si>
+  <si>
+    <t>People who love to eat are always the best people. 03 4444 57210 / 041 854 0373 || 137-C PEOPLE COLONY, D-GROUND, FAISALABAD</t>
+  </si>
+  <si>
+    <t>No Savoring every bite of the ocean Reservations: 03 4444 57210 / 041 854 0373 Address:137-C PEOPLE COLONY, D-GROUND, FAISALABAD</t>
+  </si>
+  <si>
+    <t>Perfection served on your table. Reservations: 03 4444 57210 / 041 854 0373 Address:137-C PEOPLE COLONY, D-GROUND, FAISALABAD</t>
+  </si>
+  <si>
+    <t>fitness_landmark</t>
+  </si>
+  <si>
+    <t>𝐑𝐞𝐬𝐮𝐥𝐭 𝐡𝐚𝐩𝐩𝐞𝐧 𝐨𝐯𝐞𝐫 𝐭𝐢𝐦𝐞 𝐧𝐨𝐭 𝐨𝐯𝐞𝐫𝐧𝐢𝐠𝐡𝐭 𝐬𝐨 𝐬𝐭𝐚𝐲 𝐜𝐨𝐧𝐬𝐢𝐬𝐭𝐞𝐧𝐭</t>
+  </si>
+  <si>
+    <r>
+      <t>#waleedbinadil</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>#fitnesslandmark</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>#kokorush</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>#goldenbowl</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>#food</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>#dinner</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>#model</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>#photography</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>#rules</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>#break</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>#outfit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>#history</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>#foodie</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>#cafe</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>#waleedbinadil</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>#fitnesslandmark</t>
+    </r>
+  </si>
+  <si>
+    <t>History is made by those who breaks the rules</t>
+  </si>
+  <si>
+    <t>Worth yourself and work for it</t>
+  </si>
+  <si>
+    <r>
+      <t>#ﬁtness</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>#gymlover</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>#gymworkout</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>#fıtnessfreak</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>#waleedbinadil</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>#fitnesslandmark</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>#bfit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>#befit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>#trainer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>#lifestyle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>#gymwear</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>#fitnessmodel</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>#réel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>#reelsinstagram</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>#reelfeelit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>#motivationdaily</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>#gymworkout</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>#cardioworkouts</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>#training</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>#eliptical</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>#personaltraining</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>#waleedbinadil</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>#fitnesslandmark</t>
+    </r>
+  </si>
+  <si>
+    <t>The moment when you want to quit is the moment when you need to keep pushing turn the pain into Power</t>
+  </si>
+  <si>
+    <t>Work harder</t>
+  </si>
+  <si>
+    <r>
+      <t>#pet</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>#workoutroutine</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>#viral</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>#gymlifestyle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>#cat</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>#training</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>#petlover</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>#waleedbinadil</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>#fitnesslandmark</t>
+    </r>
+  </si>
+  <si>
+    <t>Happiness</t>
+  </si>
+  <si>
+    <r>
+      <t>#reelsvideo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>#reels</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>#réel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>#reelitfeelit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>#gym</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>#workout</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>#happiness</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>#waleedbinadil</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>#fitnesslandmark</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>#reelkarofeelkaro</t>
+    </r>
+  </si>
+  <si>
+    <t>Backworkout</t>
+  </si>
+  <si>
+    <r>
+      <t>#reels</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>#shortvideo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>#reelsinstagram</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>#gymaddict</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>#ﬁtness</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>#fıtnessfreak</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>#gymlover</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>#waleedbinadil</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>#fitnesslandmark</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>#gymlifestyle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>#back</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>#backworkout</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>#reels</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>#reelsinstagram</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>#reelsvideo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>#gymlover</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>#workoutvideos</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>#ﬁtness</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>#fitnesslandmark</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>#waleedbinadil</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>#shameelzahid</t>
+    </r>
+  </si>
+  <si>
+    <t>Do it or don’t do it</t>
+  </si>
+  <si>
+    <t>Push ups</t>
+  </si>
+  <si>
+    <r>
+      <t>#reels</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>#viralvideos</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>#training</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>#shortfilm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>#gymlover</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>#beast</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>#workoutroutine</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>#motivationdaily</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>#exercisemotivation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>#ﬁtness</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>#fitnesslandmark</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>#waleedbinadil</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>#reels</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>#reelsinstagram</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>#boxing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>#boxercise</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>#ﬁtness</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>#gymaddict</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>#fitnessmodel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>#fitnesslifestyle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>#fitnesslandmark</t>
+    </r>
+  </si>
+  <si>
+    <t>Boxercise</t>
+  </si>
+  <si>
+    <t>goldenbowlpakistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Because every meal is a celebration of joy and togetherness.
+For Delivery: 📞0325 8220000
+For Queries &amp; Reservations: 📞 0325 8250000
+Location: https://goo.gl/maps
+NGtgcEiEtPzUUxxJ6
+Green Mall, Faisalabad.
+</t>
+  </si>
+  <si>
+    <t>#GoldenBowl #ModernAsianCuisine #Faisalabad #Chinese #ThaiFood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sip, savor, and soothe your soul with our heartwarming soups. A bowlful of comfort in every spoonful.
+For Delivery: 📞0325 8220000
+For Queries &amp; Reservations: 📞 0325 8250000
+Location: https://goo.gl/maps
+NGtgcEiEtPzUUxxJ6
+Green Mall, Faisalabad.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+#GoldenBowl #ModernAsianCuisine #Faisalabad #Chinese #ThaiFood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Savor the crunch! Our Crum Fried Fish is a taste of the ocean in every bite.Golden perfection, flaky fillets, and a burst of citrusy bliss. Dive into the deliciousness.
+For Delivery: 📞0325 8220000
+For Queries &amp; Reservations: 📞 0325 8250000
+Location: https://goo.gl/maps
+NGtgcEiEtPzUUxxJ6
+Green Mall, Faisalabad.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the world of Pan-Asian cuisine, life is spiced just right. Indulge in the lifestyle where every dish is a celebration of flavors and every moment is savored.
+For Delivery: 📞0325 8220000
+For Queries &amp; Reservations: 📞 0325 8250000
+Location: https://goo.gl/maps
+NGtgcEiEtPzUUxxJ6
+Green Mall, Faisalabad.
+</t>
+  </si>
+  <si>
+    <t>Steamed dumplings are a classic Asian culinary delight,known for their tender, thin dough wrappers encasing flavorful fillings. These delectable dumplings
+are typically prepared by steaming, which preserves
+their natural flavors and nutrients.
+For Delivery: 📞0325 8220000
+For Queries &amp; Reservations: 📞 0325 8250000
+Location: https://goo.gl/maps
+NGtgcEiEtPzUUxxJ6
+Green Mall, Faisalabad.</t>
+  </si>
+  <si>
+    <t>Mongolian Chicken + Vegetable Chow Mein
+= Culinary Harmony
+For Delivery: 📞0325 8220000
+For Queries &amp; Reservations: 📞 0325 8250000
+Location: https://goo.gl/maps
+NGtgcEiEtPzUUxxJ6
+Green Mall, Faisalabad.</t>
+  </si>
+  <si>
+    <t>Where Crunchiness and Honey Magic Unite in Every Bite.
+For Delivery: 📞0325 8220000
+For Queries &amp; Reservations: 📞 0325 8250000
+Location: https://goo.gl/maps
+NGtgcEiEtPzUUxxJ6
+Green Mall, Faisalabad.</t>
+  </si>
+  <si>
+    <t>Happy World Teachers' Day to the unsung heroes who nourish our minds, just like a well-cooked meal nourishes our bodies. To all the educators who sprinkle knowledge and inspiration into every lesson, here's a plate of gratitude and appreciation!
+For Delivery: 📞0325 8220000
+For Queries &amp; Reservations: 📞 0325 8250000
+Location: https://goo.gl/maps
+NGtgcEiEtPzUUxxJ6
+Green Mall, Faisalabad.</t>
+  </si>
+  <si>
+    <t>Noodles, rice, and a world of spices – the perfect trio for your culinary cravings. Ready to indulge? 🌶️🍜🍚
+For Delivery: 📞0325 8220000
+For Queries &amp; Reservations: 📞 0325 8250000
+Location: https://goo.gl/maps
+NGtgcEiEtPzUUxxJ6
+Green Mall, Faisalabad.</t>
+  </si>
+  <si>
+    <t>Experience the Zest of Pan-Asian Cuisine: Tangy and Spicy Chinese Plattte that Packs a Punch.
+For Delivery: 📞0325 8220000
+For Queries &amp; Reservations: 📞 0325 8250000
+Location: https://goo.gl/maps NGtgcEiEtPzUUxxJ6
+Green Mall, Faisalabad.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+#GoldenBowl #ModernAsianCuisine #Faisalabad #Chinese #ThaiFood #PanAsian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turn Up the Heat: Experience the
+Fiery Delights of our Hot &amp; Fiery Menu.
+For Delivery: 📞0325 8220000
+For Queries &amp; Reservations: 📞 0325 8250000
+Location: https://goo.gl/maps NGtgcEiEtPzUUxxJ6
+Green Mall, Faisalabad.
+</t>
+  </si>
+  <si>
+    <t>#GoldenBowl #ModernAsianCuisine #Faisalabad #Chinese #ThaiFood #PanAsian</t>
+  </si>
+  <si>
+    <t>makeup_products.pk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*NAKED3 URBAN DECAY 12Pcs.
+Dm/What's App: 03452402016.
+</t>
+  </si>
+  <si>
+    <t>#nakedurban #brush #makeup #pakistan #karachi #instagram</t>
+  </si>
+  <si>
+    <t>YSL Matte + Waterproof Lipstick 💄 Made In UK 🇬🇧
+Price or Information ➡️ Inbox/What's App: 03452402016.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+#ysl #lipstick #matte #uk #pakistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Complete Make-up Kit.
+Order ➡️ Inbox / WhatsApp: 03452402016.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+#cosmetics #makeup #kit #karachi #kpop #eyes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*FIT-ME. MATTE LIP GLOSS* Pack Of 12.
+More Info 👉🏻 Inbox / WhatsApp: 03452402016👈🏻
+[COD AVAILABLE IN ONLY KARACHI]. [LEOPARD 🐆 COURIER SERVICE AVAILABLE FOR OTHER CITIES].
+</t>
+  </si>
+  <si>
+    <t>#fitme #matte #lipgloss #cosmetics #wholesale #produts #karachi #instagram #instadaily</t>
+  </si>
+  <si>
+    <t>Emelie B.B, Compact Powder</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #face #powder #cosmetics #pakistan #wholesaler</t>
+  </si>
+  <si>
+    <t>makeupbynoormir</t>
+  </si>
+  <si>
+    <t>My absolutely stunning barat bride 😍🤍
+kept it exactly how my bride wanted it to be!
+Dress @ahmad.sultaan
+Jewellery @moonzjewellers
+Unfiltered and Unedited though you can see the skin texture by yourself</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+#transformationtuesday #instamood #desifashionista #asianbridalmakeup #asianbridalwear #bridaldresses
+#makeupartist #makeupgoals #bridallook #bridallehngas #partymakeup #makeupbynoormir #fashionweek #pakistanibrides #hudabeauty #trendingbridalmakeup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My Prettiest bride @hayakhurram98 😍🤍🦚
+kept it exactly how my bride wanted it to be!
+Dress @harisshakeelofficial
+Unfiltered and Unedited though you can see the skin texture by yourself!
+</t>
+  </si>
+  <si>
+    <t>transformationtuesday #instamood #desifashionista #asianbridalmakeup #asianbridalwear #bridaldresses
+##makeupartist #makeupgoals #bridallook #bridallehngas #partymakeup #makeupbynoormir #fashionweek #pakistanibrides #hudabeauty #trendingbridalmakeup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My Prettiest Walima bride 😍🤍
+Kept it exactly how my bride wanted it to be!
+Unfiltered and Unedited though you can see the skin texture by yourself!
+</t>
+  </si>
+  <si>
+    <t>My Stunning Barat bride Sehar 😍❤️
+I hope I did justice to this look. kept it exactly how my bride wanted it to be, glad that it turned out beautiful✨
+What is the best part of this makeup, am I supposed to upload the tutorial?
+Comment down your views!</t>
+  </si>
+  <si>
+    <t>#trendingbridalmakeup #regalbridallook #fyp #explorepage #bridalmakeuptutorial #makeupbynoormir #crazymakeups #makeupreels #makeupvideos</t>
+  </si>
+  <si>
+    <t>My Beautiful Walima bride 😍🤍
+Kept it exactly how my bride wanted it to be!
+Unfiltered and Unedited though you can see the skin texture by yourself!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+#transformationtuesday #instamood #desifashionista #asianbridalmakeup #asianbridalwear #bridaldresses
+#makeupartist #makeupgoals #bridallook #bridallehngas #partymakeup #makeupbynoormir #fashionweek #pakistanibrides #hudabeauty</t>
+  </si>
+  <si>
+    <t>My Stunning Walima bride Tehreem😍🤍
+Kept it exactly how my bride wanted it to be!
+Unfiltered and Unedited though you can see the skin texture by yourself!</t>
+  </si>
+  <si>
+    <t>#transformationtuesday #instamood #desifashionista #asianbridalmakeup #asianbridalwear #bridaldresses
+#makeupartist #makeupgoals #bridallook #bridallehngas #partymakeup #makeupbynoormir #fashionweek #pakistanibrides #hudabeauty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My beautiful barat bride 😍🤍
+kept it exactly how my bride wanted it to be!
+Unfiltered and Unedited though you can see the skin texture by yourself!
+</t>
+  </si>
+  <si>
+    <t>#transformationtuesday #instamood #desifashionista #asianbridalmakeup #asianbridalwear #bridaldresses
+#makeupartist #makeupgoals #bridallook #bridallehngas #partymakeup #makeupbynoormir #fashionweek #pakistanibrides #hudabeauty #trendingbridalmakeuplook</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My Gorgeous Barat bride😍🤍
+Kept it exactly how my bride wanted it to be!
+Unfiltered and Unedited though you can see the skin texture by yourself!
+</t>
+  </si>
+  <si>
+    <t>clothes</t>
+  </si>
+  <si>
+    <t>Good vibes.
+Photo via @unsplash</t>
+  </si>
+  <si>
+    <t>#streetwear #streetstyle #streettrends #style #fashion</t>
+  </si>
+  <si>
     <t>Clothing</t>
   </si>
   <si>
-    <t>Beauty</t>
-  </si>
-  <si>
-    <t>GiftShop</t>
-  </si>
-  <si>
-    <t>Fitness</t>
-  </si>
-  <si>
-    <t>actualcategory</t>
+    <t xml:space="preserve">Slaying the streets 🔥
+Photo by @pexels
+</t>
+  </si>
+  <si>
+    <t>#streetwear #fashion #streetstyle</t>
+  </si>
+  <si>
+    <t>Converse chuck 70 Hi
+Photo via @unsplash</t>
+  </si>
+  <si>
+    <t>Photo via @unsplash</t>
+  </si>
+  <si>
+    <t>One’s personal style is always a hundred-fold better.
+Photo via @unsplash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Always dress like it’s the best day of your life.
+Photo via @unsplash
+</t>
+  </si>
+  <si>
+    <t>#streetwear #streetstyle #fashion #style #streetstyleinspo #streetstyles</t>
+  </si>
+  <si>
+    <t>Cozy 🖤
+Photo via @unsplash</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -403,6 +3375,30 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -468,7 +3464,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -498,6 +3494,25 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -712,16 +3727,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F996"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F978"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="1" max="1" width="25.44140625" customWidth="1"/>
     <col min="2" max="2" width="68.88671875" customWidth="1"/>
     <col min="3" max="3" width="29.44140625" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
@@ -746,7 +3761,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="14.25" customHeight="1" thickBot="1">
@@ -766,7 +3781,7 @@
         <v>260</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="14.25" customHeight="1" thickBot="1">
@@ -786,18 +3801,18 @@
         <v>10</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="14.25" customHeight="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="14.25" customHeight="1" thickBot="1">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>10</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>11</v>
       </c>
       <c r="D4" s="4">
         <v>100</v>
@@ -806,796 +3821,1349 @@
         <v>10</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="14.25" customHeight="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="14.25" customHeight="1" thickBot="1">
       <c r="A5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>14</v>
-      </c>
       <c r="D5" s="7">
-        <v>781</v>
+        <v>290</v>
       </c>
       <c r="E5" s="7">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="14.25" customHeight="1">
       <c r="A6" s="6" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D6" s="7">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E6" s="7">
-        <v>5</v>
+        <v>80</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="14.25" customHeight="1">
       <c r="A7" s="6" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D7" s="7">
-        <v>875</v>
+        <v>421</v>
       </c>
       <c r="E7" s="7">
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="14.25" customHeight="1">
       <c r="A8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>20</v>
-      </c>
       <c r="D8" s="7">
-        <v>1157</v>
+        <v>16</v>
       </c>
       <c r="E8" s="7">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="14.25" customHeight="1">
       <c r="A9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="C9" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="D9" s="7">
+        <v>15</v>
+      </c>
+      <c r="E9" s="7">
+        <v>1</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A10" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="7">
-        <v>1056</v>
-      </c>
-      <c r="E9" s="7">
-        <v>285</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A10" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="10" t="s">
         <v>24</v>
       </c>
       <c r="C10" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="7">
+        <v>36</v>
+      </c>
+      <c r="E10" s="7">
+        <v>13</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="7">
-        <v>418</v>
-      </c>
-      <c r="E10" s="7">
-        <v>82</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A11" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>27</v>
+      <c r="C11" s="11" t="s">
+        <v>32</v>
       </c>
       <c r="D11" s="7">
-        <v>701</v>
+        <v>59</v>
       </c>
       <c r="E11" s="7">
-        <v>261</v>
+        <v>17</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="14.25" customHeight="1" thickBot="1">
       <c r="A12" s="6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>32</v>
       </c>
       <c r="D12" s="7">
-        <v>409</v>
+        <v>86</v>
       </c>
       <c r="E12" s="7">
-        <v>82</v>
+        <v>9</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="14.25" customHeight="1" thickBot="1">
       <c r="A13" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="7">
+        <v>72</v>
+      </c>
+      <c r="E13" s="7">
+        <v>15</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A14" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="7">
+        <v>39</v>
+      </c>
+      <c r="E14" s="7">
+        <v>7</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A15" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="6" t="s">
+      <c r="D15" s="7">
+        <v>42</v>
+      </c>
+      <c r="E15" s="7">
+        <v>10</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A16" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="7">
-        <v>290</v>
-      </c>
-      <c r="E13" s="7">
-        <v>64</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A14" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="7">
-        <v>300</v>
-      </c>
-      <c r="E14" s="7">
-        <v>80</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A15" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="7">
-        <v>421</v>
-      </c>
-      <c r="E15" s="7">
-        <v>91</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A16" s="6" t="s">
+      <c r="C16" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="7">
+        <v>21</v>
+      </c>
+      <c r="E16" s="7">
+        <v>5</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A17" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" s="7">
-        <v>16</v>
-      </c>
-      <c r="E16" s="7">
-        <v>3</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A17" s="6" t="s">
+      <c r="D17" s="7">
+        <v>112</v>
+      </c>
+      <c r="E17" s="7">
+        <v>4</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A18" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="7">
+        <v>118</v>
+      </c>
+      <c r="E18" s="7">
+        <v>10</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A19" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" s="7">
-        <v>15</v>
-      </c>
-      <c r="E17" s="7">
-        <v>1</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A18" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18" s="7">
-        <v>36</v>
-      </c>
-      <c r="E18" s="7">
-        <v>13</v>
-      </c>
-      <c r="F18" s="12" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A19" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>50</v>
-      </c>
       <c r="D19" s="7">
-        <v>59</v>
+        <v>186</v>
       </c>
       <c r="E19" s="7">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="14.25" customHeight="1" thickBot="1">
       <c r="A20" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="11" t="s">
-        <v>50</v>
+      <c r="B20" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="D20" s="7">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="E20" s="7">
         <v>9</v>
       </c>
       <c r="F20" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A21" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" s="7">
+        <v>31</v>
+      </c>
+      <c r="E21" s="7">
+        <v>0</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A22" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" s="7">
+        <v>35</v>
+      </c>
+      <c r="E22" s="7">
+        <v>0</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A23" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" s="7">
+        <v>18</v>
+      </c>
+      <c r="E23" s="7">
+        <v>0</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A24" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" s="7">
+        <v>10</v>
+      </c>
+      <c r="E24" s="7">
+        <v>0</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A25" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" s="7">
+        <v>147</v>
+      </c>
+      <c r="E25" s="7">
+        <v>0</v>
+      </c>
+      <c r="F25" s="16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A26" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" s="7">
+        <v>113</v>
+      </c>
+      <c r="E26" s="7">
+        <v>0</v>
+      </c>
+      <c r="F26" s="16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A27" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" s="7">
+        <v>97</v>
+      </c>
+      <c r="E27" s="7">
+        <v>1</v>
+      </c>
+      <c r="F27" s="16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A28" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28" s="7">
+        <v>20</v>
+      </c>
+      <c r="E28" s="7">
+        <v>0</v>
+      </c>
+      <c r="F28" s="16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A29" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" s="7">
+        <v>83</v>
+      </c>
+      <c r="E29" s="7">
+        <v>0</v>
+      </c>
+      <c r="F29" s="16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A30" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="D30" s="7">
+        <v>22</v>
+      </c>
+      <c r="E30" s="7">
+        <v>0</v>
+      </c>
+      <c r="F30" s="16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A31" s="18" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A21" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" s="6" t="s">
+      <c r="B31" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31" s="7">
+        <v>11</v>
+      </c>
+      <c r="E31" s="7">
+        <v>4</v>
+      </c>
+      <c r="F31" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A32" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="D32" s="7">
+        <v>10</v>
+      </c>
+      <c r="E32" s="7">
+        <v>0</v>
+      </c>
+      <c r="F32" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A33" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C33" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="D33" s="7">
+        <v>9</v>
+      </c>
+      <c r="E33" s="7">
+        <v>2</v>
+      </c>
+      <c r="F33" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A34" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C34" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="D34" s="7">
+        <v>8</v>
+      </c>
+      <c r="E34" s="7">
+        <v>1</v>
+      </c>
+      <c r="F34" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A35" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="D35" s="7">
+        <v>6</v>
+      </c>
+      <c r="E35" s="7">
+        <v>2</v>
+      </c>
+      <c r="F35" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A36" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C36" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="D36" s="7">
+        <v>5</v>
+      </c>
+      <c r="E36" s="7">
+        <v>3</v>
+      </c>
+      <c r="F36" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A37" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C37" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="D37" s="7">
+        <v>11</v>
+      </c>
+      <c r="E37" s="7">
+        <v>2</v>
+      </c>
+      <c r="F37" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A38" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C38" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="D38" s="7">
+        <v>10</v>
+      </c>
+      <c r="E38" s="7">
+        <v>0</v>
+      </c>
+      <c r="F38" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A39" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C39" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="D39" s="7">
+        <v>14</v>
+      </c>
+      <c r="E39" s="7">
+        <v>0</v>
+      </c>
+      <c r="F39" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A40" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C40" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="D40" s="7">
+        <v>14</v>
+      </c>
+      <c r="E40" s="7">
+        <v>5</v>
+      </c>
+      <c r="F40" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A41" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="B41" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="C41" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="D41" s="19">
+        <v>72</v>
+      </c>
+      <c r="E41" s="19">
+        <v>0</v>
+      </c>
+      <c r="F41" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="D21" s="7">
-        <v>72</v>
-      </c>
-      <c r="E21" s="7">
+    </row>
+    <row r="42" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A42" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="B42" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="C42" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="D42" s="19">
+        <v>52</v>
+      </c>
+      <c r="E42" s="19">
+        <v>1</v>
+      </c>
+      <c r="F42" s="19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A43" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="B43" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="C43" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="D43" s="19">
+        <v>31</v>
+      </c>
+      <c r="E43" s="19">
+        <v>0</v>
+      </c>
+      <c r="F43" s="19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A44" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="B44" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="C44" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="D44" s="19">
+        <v>34</v>
+      </c>
+      <c r="E44" s="19">
+        <v>1</v>
+      </c>
+      <c r="F44" s="19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A45" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="B45" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="C45" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="D45" s="19">
+        <v>28</v>
+      </c>
+      <c r="E45" s="19">
+        <v>0</v>
+      </c>
+      <c r="F45" s="19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A46" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="B46" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="C46" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="D46" s="19">
+        <v>31</v>
+      </c>
+      <c r="E46" s="19">
+        <v>0</v>
+      </c>
+      <c r="F46" s="19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A47" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="B47" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="C47" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="D47" s="19">
+        <v>11</v>
+      </c>
+      <c r="E47" s="19">
+        <v>0</v>
+      </c>
+      <c r="F47" s="19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A48" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="B48" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="C48" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="D48" s="19">
+        <v>23</v>
+      </c>
+      <c r="E48" s="19">
+        <v>0</v>
+      </c>
+      <c r="F48" s="19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A49" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="B49" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="C49" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="D49" s="19">
+        <v>25</v>
+      </c>
+      <c r="E49" s="19">
+        <v>0</v>
+      </c>
+      <c r="F49" s="19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A50" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="B50" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="C50" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="D50" s="19">
+        <v>34</v>
+      </c>
+      <c r="E50" s="19">
+        <v>2</v>
+      </c>
+      <c r="F50" s="19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A51" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="B51" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="C51" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="D51" s="19">
+        <v>24</v>
+      </c>
+      <c r="E51" s="19">
+        <v>2</v>
+      </c>
+      <c r="F51" s="19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A52" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="B52" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="C52" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="D52" s="19">
+        <v>18</v>
+      </c>
+      <c r="E52" s="19">
+        <v>3</v>
+      </c>
+      <c r="F52" s="19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A53" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="B53" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="C53" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="D53" s="19">
+        <v>14</v>
+      </c>
+      <c r="E53" s="19">
+        <v>1</v>
+      </c>
+      <c r="F53" s="19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A54" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="B54" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="C54" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="D54" s="19">
         <v>15</v>
       </c>
-      <c r="F21" s="12" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A22" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B22" s="6" t="s">
+      <c r="E54" s="19">
+        <v>5</v>
+      </c>
+      <c r="F54" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="D22" s="7">
-        <v>39</v>
-      </c>
-      <c r="E22" s="7">
-        <v>7</v>
-      </c>
-      <c r="F22" s="12" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A23" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C23" s="11" t="s">
+    </row>
+    <row r="55" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A55" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="B55" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="C55" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="D55" s="19">
+        <v>12</v>
+      </c>
+      <c r="E55" s="19">
+        <v>0</v>
+      </c>
+      <c r="F55" s="19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A56" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="B56" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="C56" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="D56" s="19">
+        <v>14</v>
+      </c>
+      <c r="E56" s="19">
+        <v>0</v>
+      </c>
+      <c r="F56" s="19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A57" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="B57" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="C57" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="D57" s="22">
+        <v>2969</v>
+      </c>
+      <c r="E57" s="22">
+        <v>56</v>
+      </c>
+      <c r="F57" s="23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A58" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="B58" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="C58" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="D58" s="22">
+        <v>1143</v>
+      </c>
+      <c r="E58" s="22">
+        <v>29</v>
+      </c>
+      <c r="F58" s="23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A59" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="B59" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="C59" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="D59" s="22">
+        <v>3337</v>
+      </c>
+      <c r="E59" s="22">
         <v>53</v>
       </c>
-      <c r="D23" s="7">
+      <c r="F59" s="23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A60" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="B60" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="C60" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="D60" s="22">
+        <v>1143</v>
+      </c>
+      <c r="E60" s="22">
+        <v>57</v>
+      </c>
+      <c r="F60" s="23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A61" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="B61" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="C61" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="D61" s="22">
+        <v>1070</v>
+      </c>
+      <c r="E61" s="22">
+        <v>32</v>
+      </c>
+      <c r="F61" s="23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A62" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="B62" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="C62" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="D62" s="22">
+        <v>1139</v>
+      </c>
+      <c r="E62" s="22">
         <v>42</v>
       </c>
-      <c r="E23" s="7">
-        <v>10</v>
-      </c>
-      <c r="F23" s="12" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A24" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="D24" s="7">
-        <v>21</v>
-      </c>
-      <c r="E24" s="7">
-        <v>5</v>
-      </c>
-      <c r="F24" s="12" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A25" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D25" s="7">
-        <v>112</v>
-      </c>
-      <c r="E25" s="7">
-        <v>4</v>
-      </c>
-      <c r="F25" s="12" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A26" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D26" s="7">
-        <v>118</v>
-      </c>
-      <c r="E26" s="7">
-        <v>10</v>
-      </c>
-      <c r="F26" s="12" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A27" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D27" s="7">
-        <v>186</v>
-      </c>
-      <c r="E27" s="7">
-        <v>14</v>
-      </c>
-      <c r="F27" s="12" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A28" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D28" s="7">
-        <v>69</v>
-      </c>
-      <c r="E28" s="7">
-        <v>9</v>
-      </c>
-      <c r="F28" s="12" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="8"/>
-    </row>
-    <row r="30" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="8"/>
-    </row>
-    <row r="31" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A31" s="6"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="8"/>
-    </row>
-    <row r="32" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A32" s="6"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="8"/>
-    </row>
-    <row r="33" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A33" s="6"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="8"/>
-    </row>
-    <row r="34" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A34" s="6"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="8"/>
-    </row>
-    <row r="35" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A35" s="6"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="8"/>
-    </row>
-    <row r="36" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A36" s="6"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="8"/>
-    </row>
-    <row r="37" spans="1:6" ht="14.25" customHeight="1">
-      <c r="C37" s="6"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="8"/>
-    </row>
-    <row r="38" spans="1:6" ht="14.25" customHeight="1">
-      <c r="C38" s="6"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="8"/>
-    </row>
-    <row r="39" spans="1:6" ht="14.25" customHeight="1">
-      <c r="C39" s="6"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="8"/>
-    </row>
-    <row r="40" spans="1:6" ht="14.25" customHeight="1">
-      <c r="C40" s="6"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="8"/>
-    </row>
-    <row r="41" spans="1:6" ht="14.25" customHeight="1">
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="8"/>
-    </row>
-    <row r="42" spans="1:6" ht="14.25" customHeight="1">
-      <c r="C42" s="6"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="8"/>
-    </row>
-    <row r="43" spans="1:6" ht="14.25" customHeight="1">
-      <c r="C43" s="6"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="8"/>
-    </row>
-    <row r="44" spans="1:6" ht="14.25" customHeight="1">
-      <c r="C44" s="6"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="8"/>
-    </row>
-    <row r="45" spans="1:6" ht="14.25" customHeight="1">
-      <c r="C45" s="6"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="8"/>
-    </row>
-    <row r="46" spans="1:6" ht="14.25" customHeight="1">
-      <c r="C46" s="6"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="8"/>
-    </row>
-    <row r="47" spans="1:6" ht="14.25" customHeight="1">
-      <c r="C47" s="6"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="8"/>
-    </row>
-    <row r="48" spans="1:6" ht="14.25" customHeight="1">
-      <c r="C48" s="6"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="8"/>
-    </row>
-    <row r="49" spans="1:6" ht="14.25" customHeight="1">
-      <c r="C49" s="6"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="8"/>
-    </row>
-    <row r="50" spans="1:6" ht="14.25" customHeight="1">
-      <c r="C50" s="6"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="7"/>
-      <c r="F50" s="8"/>
-    </row>
-    <row r="51" spans="1:6" ht="14.25" customHeight="1">
-      <c r="C51" s="6"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="8"/>
-    </row>
-    <row r="52" spans="1:6" ht="14.25" customHeight="1">
-      <c r="C52" s="6"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="8"/>
-    </row>
-    <row r="53" spans="1:6" ht="14.25" customHeight="1">
-      <c r="C53" s="6"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="8"/>
-    </row>
-    <row r="54" spans="1:6" ht="14.25" customHeight="1">
-      <c r="C54" s="6"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="8"/>
-    </row>
-    <row r="55" spans="1:6" ht="14.25" customHeight="1">
-      <c r="C55" s="6"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="8"/>
-    </row>
-    <row r="56" spans="1:6" ht="14.25" customHeight="1">
-      <c r="C56" s="6"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="7"/>
-      <c r="F56" s="8"/>
-    </row>
-    <row r="57" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A57" s="6"/>
-      <c r="B57" s="6"/>
-      <c r="C57" s="6"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="7"/>
-      <c r="F57" s="8"/>
-    </row>
-    <row r="58" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A58" s="6"/>
-      <c r="B58" s="6"/>
-      <c r="C58" s="6"/>
-      <c r="D58" s="7"/>
-      <c r="E58" s="7"/>
-      <c r="F58" s="8"/>
-    </row>
-    <row r="59" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A59" s="6"/>
-      <c r="B59" s="6"/>
-      <c r="C59" s="6"/>
-      <c r="D59" s="7"/>
-      <c r="E59" s="7"/>
-      <c r="F59" s="8"/>
-    </row>
-    <row r="60" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A60" s="6"/>
-      <c r="B60" s="6"/>
-      <c r="C60" s="6"/>
-      <c r="D60" s="7"/>
-      <c r="E60" s="7"/>
-      <c r="F60" s="8"/>
-    </row>
-    <row r="61" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A61" s="6"/>
-      <c r="B61" s="6"/>
-      <c r="C61" s="6"/>
-      <c r="D61" s="7"/>
-      <c r="E61" s="7"/>
-      <c r="F61" s="8"/>
-    </row>
-    <row r="62" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A62" s="6"/>
-      <c r="B62" s="6"/>
-      <c r="C62" s="6"/>
-      <c r="D62" s="7"/>
-      <c r="E62" s="7"/>
-      <c r="F62" s="8"/>
+      <c r="F62" s="23" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="63" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A63" s="6"/>
-      <c r="B63" s="6"/>
-      <c r="C63" s="6"/>
-      <c r="D63" s="7"/>
-      <c r="E63" s="7"/>
-      <c r="F63" s="8"/>
+      <c r="A63" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="B63" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="C63" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="D63" s="22">
+        <v>1165</v>
+      </c>
+      <c r="E63" s="22">
+        <v>36</v>
+      </c>
+      <c r="F63" s="23" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="64" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A64" s="6"/>
-      <c r="B64" s="6"/>
-      <c r="C64" s="6"/>
-      <c r="D64" s="7"/>
-      <c r="E64" s="7"/>
-      <c r="F64" s="8"/>
+      <c r="A64" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="B64" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="C64" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="D64" s="22">
+        <v>2228</v>
+      </c>
+      <c r="E64" s="22">
+        <v>80</v>
+      </c>
+      <c r="F64" s="23" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="65" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A65" s="6"/>
-      <c r="B65" s="6"/>
-      <c r="C65" s="6"/>
-      <c r="D65" s="7"/>
-      <c r="E65" s="7"/>
-      <c r="F65" s="8"/>
+      <c r="A65" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="B65" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="C65" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="D65" s="19">
+        <v>23</v>
+      </c>
+      <c r="E65" s="19">
+        <v>0</v>
+      </c>
+      <c r="F65" s="19" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="66" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A66" s="6"/>
-      <c r="B66" s="6"/>
-      <c r="C66" s="6"/>
-      <c r="D66" s="7"/>
-      <c r="E66" s="7"/>
-      <c r="F66" s="8"/>
+      <c r="A66" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="B66" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="C66" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="D66" s="19">
+        <v>24</v>
+      </c>
+      <c r="E66" s="19">
+        <v>0</v>
+      </c>
+      <c r="F66" s="19" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="67" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A67" s="6"/>
-      <c r="B67" s="6"/>
-      <c r="C67" s="6"/>
-      <c r="D67" s="7"/>
-      <c r="E67" s="7"/>
-      <c r="F67" s="8"/>
-    </row>
-    <row r="68" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A68" s="6"/>
-      <c r="B68" s="6"/>
-      <c r="C68" s="6"/>
-      <c r="D68" s="7"/>
-      <c r="E68" s="7"/>
-      <c r="F68" s="8"/>
-    </row>
-    <row r="69" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A69" s="6"/>
-      <c r="B69" s="6"/>
-      <c r="C69" s="6"/>
-      <c r="D69" s="7"/>
-      <c r="E69" s="7"/>
-      <c r="F69" s="8"/>
-    </row>
-    <row r="70" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A70" s="6"/>
-      <c r="B70" s="6"/>
-      <c r="C70" s="6"/>
-      <c r="D70" s="7"/>
-      <c r="E70" s="7"/>
-      <c r="F70" s="8"/>
-    </row>
-    <row r="71" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A71" s="6"/>
-      <c r="B71" s="6"/>
+      <c r="A67" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="B67" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="C67" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="D67" s="19">
+        <v>35</v>
+      </c>
+      <c r="E67" s="19">
+        <v>0</v>
+      </c>
+      <c r="F67" s="19" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A68" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="B68" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="C68" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="D68" s="19">
+        <v>13</v>
+      </c>
+      <c r="E68" s="19">
+        <v>0</v>
+      </c>
+      <c r="F68" s="19" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A69" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="B69" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D69" s="7">
+        <v>23</v>
+      </c>
+      <c r="E69" s="7">
+        <v>0</v>
+      </c>
+      <c r="F69" s="8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A70" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="B70" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D70" s="7">
+        <v>23</v>
+      </c>
+      <c r="E70" s="7">
+        <v>0</v>
+      </c>
+      <c r="F70" s="8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A71" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="B71" s="20" t="s">
+        <v>137</v>
+      </c>
       <c r="C71" s="6"/>
-      <c r="D71" s="7"/>
-      <c r="E71" s="7"/>
-      <c r="F71" s="8"/>
-    </row>
-    <row r="72" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A72" s="6"/>
+      <c r="D71" s="7">
+        <v>24</v>
+      </c>
+      <c r="E71" s="7">
+        <v>0</v>
+      </c>
+      <c r="F71" s="8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A72" s="9"/>
       <c r="B72" s="6"/>
       <c r="C72" s="6"/>
       <c r="D72" s="7"/>
@@ -1603,7 +5171,7 @@
       <c r="F72" s="8"/>
     </row>
     <row r="73" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A73" s="6"/>
+      <c r="A73" s="9"/>
       <c r="B73" s="6"/>
       <c r="C73" s="6"/>
       <c r="D73" s="7"/>
@@ -1611,7 +5179,7 @@
       <c r="F73" s="8"/>
     </row>
     <row r="74" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A74" s="6"/>
+      <c r="A74" s="9"/>
       <c r="B74" s="6"/>
       <c r="C74" s="6"/>
       <c r="D74" s="7"/>
@@ -1619,7 +5187,7 @@
       <c r="F74" s="8"/>
     </row>
     <row r="75" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A75" s="6"/>
+      <c r="A75" s="9"/>
       <c r="B75" s="6"/>
       <c r="C75" s="6"/>
       <c r="D75" s="7"/>
@@ -1627,7 +5195,7 @@
       <c r="F75" s="8"/>
     </row>
     <row r="76" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A76" s="6"/>
+      <c r="A76" s="9"/>
       <c r="B76" s="6"/>
       <c r="C76" s="6"/>
       <c r="D76" s="7"/>
@@ -1650,150 +5218,24 @@
       <c r="E78" s="7"/>
       <c r="F78" s="8"/>
     </row>
-    <row r="79" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A79" s="9"/>
-      <c r="B79" s="6"/>
-      <c r="C79" s="6"/>
-      <c r="D79" s="7"/>
-      <c r="E79" s="7"/>
-      <c r="F79" s="8"/>
-    </row>
-    <row r="80" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A80" s="9"/>
-      <c r="B80" s="6"/>
-      <c r="C80" s="6"/>
-      <c r="D80" s="7"/>
-      <c r="E80" s="7"/>
-      <c r="F80" s="8"/>
-    </row>
-    <row r="81" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A81" s="9"/>
-      <c r="B81" s="6"/>
-      <c r="C81" s="6"/>
-      <c r="D81" s="7"/>
-      <c r="E81" s="7"/>
-      <c r="F81" s="8"/>
-    </row>
-    <row r="82" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A82" s="9"/>
-      <c r="B82" s="6"/>
-      <c r="C82" s="6"/>
-      <c r="D82" s="7"/>
-      <c r="E82" s="7"/>
-      <c r="F82" s="8"/>
-    </row>
-    <row r="83" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A83" s="9"/>
-      <c r="B83" s="6"/>
-      <c r="C83" s="6"/>
-      <c r="D83" s="7"/>
-      <c r="E83" s="7"/>
-      <c r="F83" s="8"/>
-    </row>
-    <row r="84" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A84" s="9"/>
-      <c r="B84" s="6"/>
-      <c r="C84" s="6"/>
-      <c r="D84" s="7"/>
-      <c r="E84" s="7"/>
-      <c r="F84" s="8"/>
-    </row>
-    <row r="85" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A85" s="9"/>
-      <c r="B85" s="6"/>
-      <c r="C85" s="6"/>
-      <c r="D85" s="7"/>
-      <c r="E85" s="7"/>
-      <c r="F85" s="8"/>
-    </row>
-    <row r="86" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A86" s="9"/>
-      <c r="B86" s="6"/>
-      <c r="C86" s="6"/>
-      <c r="D86" s="7"/>
-      <c r="E86" s="7"/>
-      <c r="F86" s="8"/>
-    </row>
-    <row r="87" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A87" s="9"/>
-      <c r="B87" s="6"/>
-      <c r="C87" s="6"/>
-      <c r="D87" s="7"/>
-      <c r="E87" s="7"/>
-      <c r="F87" s="8"/>
-    </row>
-    <row r="88" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A88" s="9"/>
-      <c r="B88" s="6"/>
-      <c r="C88" s="6"/>
-      <c r="D88" s="7"/>
-      <c r="E88" s="7"/>
-      <c r="F88" s="8"/>
-    </row>
-    <row r="89" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A89" s="9"/>
-      <c r="B89" s="6"/>
-      <c r="C89" s="6"/>
-      <c r="D89" s="7"/>
-      <c r="E89" s="7"/>
-      <c r="F89" s="8"/>
-    </row>
-    <row r="90" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A90" s="9"/>
-      <c r="B90" s="6"/>
-      <c r="C90" s="6"/>
-      <c r="D90" s="7"/>
-      <c r="E90" s="7"/>
-      <c r="F90" s="8"/>
-    </row>
-    <row r="91" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A91" s="9"/>
-      <c r="B91" s="6"/>
-      <c r="C91" s="6"/>
-      <c r="D91" s="7"/>
-      <c r="E91" s="7"/>
-      <c r="F91" s="8"/>
-    </row>
-    <row r="92" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A92" s="9"/>
-      <c r="B92" s="6"/>
-      <c r="C92" s="6"/>
-      <c r="D92" s="7"/>
-      <c r="E92" s="7"/>
-      <c r="F92" s="8"/>
-    </row>
-    <row r="93" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A93" s="9"/>
-      <c r="B93" s="6"/>
-      <c r="C93" s="6"/>
-      <c r="D93" s="7"/>
-      <c r="E93" s="7"/>
-      <c r="F93" s="8"/>
-    </row>
-    <row r="94" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A94" s="9"/>
-      <c r="B94" s="6"/>
-      <c r="C94" s="6"/>
-      <c r="D94" s="7"/>
-      <c r="E94" s="7"/>
-      <c r="F94" s="8"/>
-    </row>
-    <row r="95" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A95" s="9"/>
-      <c r="B95" s="6"/>
-      <c r="C95" s="6"/>
-      <c r="D95" s="7"/>
-      <c r="E95" s="7"/>
-      <c r="F95" s="8"/>
-    </row>
-    <row r="96" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A96" s="9"/>
-      <c r="B96" s="6"/>
-      <c r="C96" s="6"/>
-      <c r="D96" s="7"/>
-      <c r="E96" s="7"/>
-      <c r="F96" s="8"/>
-    </row>
+    <row r="79" spans="1:6" ht="14.25" customHeight="1"/>
+    <row r="80" spans="1:6" ht="14.25" customHeight="1"/>
+    <row r="81" ht="14.25" customHeight="1"/>
+    <row r="82" ht="14.25" customHeight="1"/>
+    <row r="83" ht="14.25" customHeight="1"/>
+    <row r="84" ht="14.25" customHeight="1"/>
+    <row r="85" ht="14.25" customHeight="1"/>
+    <row r="86" ht="14.25" customHeight="1"/>
+    <row r="87" ht="14.25" customHeight="1"/>
+    <row r="88" ht="14.25" customHeight="1"/>
+    <row r="89" ht="14.25" customHeight="1"/>
+    <row r="90" ht="14.25" customHeight="1"/>
+    <row r="91" ht="14.25" customHeight="1"/>
+    <row r="92" ht="14.25" customHeight="1"/>
+    <row r="93" ht="14.25" customHeight="1"/>
+    <row r="94" ht="14.25" customHeight="1"/>
+    <row r="95" ht="14.25" customHeight="1"/>
+    <row r="96" ht="14.25" customHeight="1"/>
     <row r="97" ht="14.25" customHeight="1"/>
     <row r="98" ht="14.25" customHeight="1"/>
     <row r="99" ht="14.25" customHeight="1"/>
@@ -2676,24 +6118,6 @@
     <row r="976" ht="14.25" customHeight="1"/>
     <row r="977" ht="14.25" customHeight="1"/>
     <row r="978" ht="14.25" customHeight="1"/>
-    <row r="979" ht="14.25" customHeight="1"/>
-    <row r="980" ht="14.25" customHeight="1"/>
-    <row r="981" ht="14.25" customHeight="1"/>
-    <row r="982" ht="14.25" customHeight="1"/>
-    <row r="983" ht="14.25" customHeight="1"/>
-    <row r="984" ht="14.25" customHeight="1"/>
-    <row r="985" ht="14.25" customHeight="1"/>
-    <row r="986" ht="14.25" customHeight="1"/>
-    <row r="987" ht="14.25" customHeight="1"/>
-    <row r="988" ht="14.25" customHeight="1"/>
-    <row r="989" ht="14.25" customHeight="1"/>
-    <row r="990" ht="14.25" customHeight="1"/>
-    <row r="991" ht="14.25" customHeight="1"/>
-    <row r="992" ht="14.25" customHeight="1"/>
-    <row r="993" ht="14.25" customHeight="1"/>
-    <row r="994" ht="14.25" customHeight="1"/>
-    <row r="995" ht="14.25" customHeight="1"/>
-    <row r="996" ht="14.25" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
